--- a/data/trans_camb/P36B08_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>19.11371604072332</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32.71511943409759</v>
+        <v>32.71511943409762</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>7.64026343769374</v>
@@ -664,7 +664,7 @@
         <v>16.73871115059129</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>29.05265543459051</v>
+        <v>29.05265543459047</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.696842322984421</v>
+        <v>1.666252644168014</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.4554475674918</v>
+        <v>11.41585210410365</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25.82894655483015</v>
+        <v>26.50766973732804</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.5013741516072526</v>
+        <v>0.3665872923225213</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.618789072497556</v>
+        <v>7.155520877554531</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>19.30091177096033</v>
+        <v>18.99395739296646</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.105493683513808</v>
+        <v>3.176860576807473</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>11.42602198913399</v>
+        <v>11.37310064234672</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>24.66066801400999</v>
+        <v>24.9133681366467</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.44114231919087</v>
+        <v>17.45527165802565</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>26.80429685916261</v>
+        <v>26.95739540595492</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39.38560467459441</v>
+        <v>39.01727681438456</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.45794819813563</v>
+        <v>15.00334811177469</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>21.24799339758716</v>
+        <v>21.0452631806345</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>31.9493499407726</v>
+        <v>31.6899763999275</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>14.40998349587337</v>
+        <v>14.29441089764212</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>22.17903751567626</v>
+        <v>22.08812562107337</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>33.75227504183185</v>
+        <v>33.21795432162851</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3114562085311954</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.5330897999572703</v>
+        <v>0.5330897999572707</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1071741259600971</v>
@@ -769,7 +769,7 @@
         <v>0.252762432569021</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4387087986745791</v>
+        <v>0.4387087986745785</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.02613391465324596</v>
+        <v>0.02638984509006051</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.159076324356414</v>
+        <v>0.1748008605389626</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3822488233600507</v>
+        <v>0.3999096673633705</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.003970636703491993</v>
+        <v>0.004654399186852888</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1002921265999934</v>
+        <v>0.0967968912142797</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2547772623056718</v>
+        <v>0.2479827134369936</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04482319451100842</v>
+        <v>0.04546893389701442</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1629981928222301</v>
+        <v>0.1648021924573235</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3544927302947639</v>
+        <v>0.3534940152327334</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3285035990159731</v>
+        <v>0.3100976845241774</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4797949295815774</v>
+        <v>0.4810675635379065</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7103066423859381</v>
+        <v>0.6938569512701144</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2335162106275512</v>
+        <v>0.2271211438809244</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3163385837016927</v>
+        <v>0.3179976484867638</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4946320840574598</v>
+        <v>0.4835932779613131</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2276600518202484</v>
+        <v>0.2258019253015225</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3530785829990229</v>
+        <v>0.3522483787154504</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5435768309308397</v>
+        <v>0.5275036360980283</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>20.95881661373298</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>35.90987226217435</v>
+        <v>35.90987226217434</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>10.22650253575944</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.119016424318033</v>
+        <v>4.269898666581253</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>17.22880301313763</v>
+        <v>16.01418469540211</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42.26284186365351</v>
+        <v>41.94638996804211</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.911271391081245</v>
+        <v>3.537981769942093</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>15.20611513013412</v>
+        <v>15.35403575943499</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>31.55556496275868</v>
+        <v>31.19624005264379</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.281326132122439</v>
+        <v>5.857151977824117</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>17.67292328276435</v>
+        <v>17.80409116129442</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>38.00251110466612</v>
+        <v>37.97516869637593</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.16449898579112</v>
+        <v>17.09679992089415</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>29.54919892630371</v>
+        <v>28.85163651514716</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>52.81333470074486</v>
+        <v>52.56989156099099</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16.36762066791142</v>
+        <v>16.06154371375647</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>26.53797211479425</v>
+        <v>26.69675077175044</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>40.64106451357405</v>
+        <v>40.52985457829094</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>14.91423835110759</v>
+        <v>14.72072096409443</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>26.29561949088001</v>
+        <v>26.40206671078424</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>45.5334722400178</v>
+        <v>45.53659252847734</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.3636655003139211</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6230877393085154</v>
+        <v>0.6230877393085151</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1979690162385123</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.08799407250016754</v>
+        <v>0.08421563209418843</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3503747242668518</v>
+        <v>0.325704209073183</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.8535379752815211</v>
+        <v>0.8406874720931365</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.06537276130471155</v>
+        <v>0.05991926965756916</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2502459612913394</v>
+        <v>0.2524897931577357</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5078300783774761</v>
+        <v>0.5074117804754997</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1180745255375345</v>
+        <v>0.1078300277672066</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3298562641693949</v>
+        <v>0.3276247295468762</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.693330502815069</v>
+        <v>0.6982541589239862</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4132828814071663</v>
+        <v>0.4043827062609073</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7183521107614481</v>
+        <v>0.6959419710362271</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.283834286081451</v>
+        <v>1.275249653255901</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.306884380945144</v>
+        <v>0.2970234939302719</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5018193497315042</v>
+        <v>0.5010673244164343</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7615138255269288</v>
+        <v>0.760629378841999</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3027744218879103</v>
+        <v>0.3002888578288258</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5367446996456579</v>
+        <v>0.5395599223834538</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9438026383907329</v>
+        <v>0.940056331110081</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>0.9031703249908984</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>17.58863932735493</v>
+        <v>17.58863932735495</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>8.111431208388264</v>
@@ -1092,7 +1092,7 @@
         <v>0.6324375442888774</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>18.44275845903039</v>
+        <v>18.44275845903042</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7664576080755713</v>
+        <v>0.919925303331336</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.30096350214053</v>
+        <v>-6.179408216563231</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13.29326716459136</v>
+        <v>13.24249916762566</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.01914654842002</v>
+        <v>2.930377993099538</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.200674531775888</v>
+        <v>-5.628337529281239</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>12.86509853812335</v>
+        <v>12.66487064838051</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.186769565967722</v>
+        <v>3.407453387310397</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.349187515100267</v>
+        <v>-4.084597861068329</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>14.73000583013138</v>
+        <v>14.84096946258088</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.29220324886579</v>
+        <v>14.75267820953311</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.872150121549424</v>
+        <v>7.591388090955328</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25.26897234179569</v>
+        <v>25.03802494282029</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.15684233334357</v>
+        <v>14.57171824887115</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.930183643747461</v>
+        <v>6.767023864108632</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>22.84207078346186</v>
+        <v>22.98814685669837</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.02098867644015</v>
+        <v>12.87226632307691</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.365718832765838</v>
+        <v>5.603345946539058</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>22.34326777650833</v>
+        <v>22.79734495142784</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.01170768397639132</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.22799933204346</v>
+        <v>0.2279993320434602</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1082427807117134</v>
@@ -1197,7 +1197,7 @@
         <v>0.008439546198644</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2461089058531986</v>
+        <v>0.2461089058531989</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.008682656369901695</v>
+        <v>0.01209616333830408</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.08404573822781736</v>
+        <v>-0.08160400642253322</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1749627457992754</v>
+        <v>0.1732283093458294</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.03812230760321242</v>
+        <v>0.03963711925455207</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.06574966154442088</v>
+        <v>-0.07027725810637048</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1599466353760357</v>
+        <v>0.1542401666995295</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04160840847415379</v>
+        <v>0.04223946979046624</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.0567862149583238</v>
+        <v>-0.05345581487373782</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1893012853263362</v>
+        <v>0.1916191260345259</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2083963340081151</v>
+        <v>0.214623947711026</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1143316191143003</v>
+        <v>0.109657913753694</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3722883328009555</v>
+        <v>0.3676434197123962</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.210508482430697</v>
+        <v>0.1989347883347031</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.110189912876557</v>
+        <v>0.09079242042554182</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3174219150229071</v>
+        <v>0.3173039139865588</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1682957602532352</v>
+        <v>0.1766193334805549</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.07293025043894512</v>
+        <v>0.07897100460522863</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3124830059838796</v>
+        <v>0.3201662070076863</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>11.599778236039</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29.86456067387422</v>
+        <v>29.86456067387421</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>7.874731220481412</v>
@@ -1306,7 +1306,7 @@
         <v>10.40985025972877</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>24.99126653282495</v>
+        <v>24.99126653282494</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.902896024173915</v>
+        <v>3.361246647837621</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.961688608218116</v>
+        <v>4.488855749124998</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>24.51312484029901</v>
+        <v>24.40569382942076</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.453502008982336</v>
+        <v>2.668583517244434</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.805524037962768</v>
+        <v>3.886479685610664</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.31186361505555</v>
+        <v>15.99214794192742</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.031235656042218</v>
+        <v>4.631254208246274</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>5.919441286045938</v>
+        <v>5.707701556207676</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>21.7028378313043</v>
+        <v>21.70407107257003</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.2371233020254</v>
+        <v>16.03108598380985</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.32639350870338</v>
+        <v>17.5626534467593</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35.21384719363021</v>
+        <v>34.72643570772331</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.39206834765283</v>
+        <v>13.09804123118591</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>14.24483103182801</v>
+        <v>14.54542514561496</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>24.39829889987604</v>
+        <v>24.39790825967056</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.93408807856556</v>
+        <v>13.24172759918246</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>14.87780842788127</v>
+        <v>14.69474401041728</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>28.41398029347881</v>
+        <v>28.32664768472719</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1690792163241838</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4353080215720524</v>
+        <v>0.4353080215720522</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1013725895163635</v>
@@ -1411,7 +1411,7 @@
         <v>0.1421668177659143</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.341304509312326</v>
+        <v>0.3413045093123258</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.03936807580073665</v>
+        <v>0.04793403665014245</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.07009319694399087</v>
+        <v>0.06131375381997917</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3346074440546155</v>
+        <v>0.3352141069708449</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.02944049160949292</v>
+        <v>0.03330094810547964</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.04468479924938846</v>
+        <v>0.04950860848500593</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1995739396969482</v>
+        <v>0.1978471066594703</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05316186995567859</v>
+        <v>0.06113233047509654</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.07764460204337312</v>
+        <v>0.07747377567606353</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2840337354193814</v>
+        <v>0.2833625896859117</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2478072562749618</v>
+        <v>0.2464754304578256</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2852750231984121</v>
+        <v>0.2745270644730541</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5555915221151395</v>
+        <v>0.5429458908155209</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1794022394968615</v>
+        <v>0.17683842991485</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1898717795443095</v>
+        <v>0.1970648627848839</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3295616719566959</v>
+        <v>0.3311979686764721</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1819449742273236</v>
+        <v>0.1876317180813786</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2093972243381558</v>
+        <v>0.2080984813622083</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4048547911907458</v>
+        <v>0.4027133905212682</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>32.98257433324912</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>42.67929674882684</v>
+        <v>42.67929674882682</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.468175182776363</v>
+        <v>2.958213475472895</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>31.17794709423556</v>
+        <v>29.85701491332817</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>41.98236924810187</v>
+        <v>41.5967369091745</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.242334731417025</v>
+        <v>1.843221686680676</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>18.90143118566102</v>
+        <v>19.22172708289474</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>29.59821439438856</v>
+        <v>29.60121563986951</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.976878625510276</v>
+        <v>5.474181115139353</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>27.10687367307224</v>
+        <v>27.28137988257872</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>37.66494227005261</v>
+        <v>38.47907934262403</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>22.97960110417371</v>
+        <v>22.37809190130091</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>47.26217062635601</v>
+        <v>46.29569066422981</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>56.06384213453261</v>
+        <v>55.92926737615846</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19.40269170140911</v>
+        <v>20.16827027019422</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>34.80704609194431</v>
+        <v>34.75651542328008</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>43.44649839295776</v>
+        <v>43.67311234011037</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>18.35719850793993</v>
+        <v>18.77738926077888</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>38.70034931279817</v>
+        <v>38.6429585443872</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>47.7779857443335</v>
+        <v>47.94310261831372</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.5804477604381059</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.751096684104387</v>
+        <v>0.7510966841043867</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.06660268957695627</v>
+        <v>0.052528362440928</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.549116179811676</v>
+        <v>0.5227130052316774</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.7293090530488551</v>
+        <v>0.7096981282312383</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.01876164536369649</v>
+        <v>0.02877500294969213</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2713958700886057</v>
+        <v>0.2775079907695672</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4223788776668734</v>
+        <v>0.425419794338621</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08390600919723006</v>
+        <v>0.08984506895107296</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.4417116465754204</v>
+        <v>0.4407741665939718</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.6115912786606842</v>
+        <v>0.6304868941227398</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5301901378994307</v>
+        <v>0.4933302635658536</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.070632405428372</v>
+        <v>1.017279596029747</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.280334119091769</v>
+        <v>1.278268989539311</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3424058388981412</v>
+        <v>0.3563922847063928</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6155300129267849</v>
+        <v>0.6187358799997199</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7715768910358668</v>
+        <v>0.7844703439295029</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3480109419559475</v>
+        <v>0.3510458259448048</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7489762519730527</v>
+        <v>0.735613343321443</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9231513831394721</v>
+        <v>0.9308226296039002</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-10.63821642555927</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>32.28407691281181</v>
+        <v>32.2840769128118</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>7.007970679002429</v>
@@ -1725,7 +1725,7 @@
         <v>-16.34126295025229</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>21.62991929575123</v>
+        <v>21.6299192957512</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>7.429627178795695</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.4327485466688052</v>
+        <v>0.2956239917994478</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-19.84289700759055</v>
+        <v>-19.55720899356555</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>25.97359653372977</v>
+        <v>26.45250655475989</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.283258891333681</v>
+        <v>-0.0601962175688095</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-23.90922509935995</v>
+        <v>-24.72186649513074</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>16.23123851183952</v>
+        <v>16.41555746075006</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.200346481735044</v>
+        <v>2.442343802380264</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-19.53558231737804</v>
+        <v>-18.73645103696136</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>23.11398221497068</v>
+        <v>22.9610929991538</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>16.01903324101327</v>
+        <v>15.81058948905015</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-2.30000017945417</v>
+        <v>-2.905308274036748</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>38.37131362188037</v>
+        <v>38.06413205781477</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14.13809631541172</v>
+        <v>13.92813265168895</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-8.743345719558802</v>
+        <v>-8.299699747053729</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>27.25292342502958</v>
+        <v>27.05236095011537</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>12.66110099899016</v>
+        <v>12.77771987720972</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-8.314139140232907</v>
+        <v>-8.055079553966836</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>30.78669569126319</v>
+        <v>31.29048632322306</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.1648779030662605</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.5003593357083305</v>
+        <v>0.5003593357083304</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.09182958028020337</v>
@@ -1830,7 +1830,7 @@
         <v>-0.2141292232380907</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2834296119952158</v>
+        <v>0.2834296119952154</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1053890598628753</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.005166280222389128</v>
+        <v>0.004721061288790429</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2944024340041448</v>
+        <v>-0.2906609818862815</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.3705746233837507</v>
+        <v>0.3765616925407053</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.003516829127600367</v>
+        <v>7.773726582720685e-05</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3023049850409483</v>
+        <v>-0.311197809939</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1986139476297449</v>
+        <v>0.2038135478614185</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03010530644280614</v>
+        <v>0.03035065188936107</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2676788615596875</v>
+        <v>-0.2605185642788251</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.3136231312832486</v>
+        <v>0.3090940895970746</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2652469376006074</v>
+        <v>0.2612774935637662</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.03804912722716188</v>
+        <v>-0.04675417839249327</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.6604761322564857</v>
+        <v>0.6401303556004323</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1988618938032679</v>
+        <v>0.1929581876362759</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.1162492059610462</v>
+        <v>-0.1154411584406604</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3843295975561516</v>
+        <v>0.3769352780012331</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1859877671169495</v>
+        <v>0.1888157489224099</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.1203480833521941</v>
+        <v>-0.1163328509777469</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.4588066365945404</v>
+        <v>0.4707588840844156</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>-7.461835898616298</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>14.81052932146292</v>
+        <v>14.81052932146294</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-6.5021173901364</v>
+        <v>-6.411706264302324</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-17.45548831936706</v>
+        <v>-17.29800750883981</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7.560226014897431</v>
+        <v>7.913822541056081</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.037922576231449</v>
+        <v>3.037007542832376</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-7.739420920426745</v>
+        <v>-8.168277029195533</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>12.87221709788084</v>
+        <v>12.69918946929953</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.5441540625946737</v>
+        <v>-0.1938228257126419</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-11.21185607232826</v>
+        <v>-11.32147326632411</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>11.60978370093591</v>
+        <v>11.84158904364424</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.57719485804168</v>
+        <v>3.712970709902265</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-6.717011383699472</v>
+        <v>-6.611097725354119</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>16.84180699315981</v>
+        <v>16.78050059064586</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>11.86560194020901</v>
+        <v>11.74953341207175</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.05680694772368</v>
+        <v>1.293917751918508</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>21.02019146011938</v>
+        <v>20.91950085328498</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>6.415431860626729</v>
+        <v>6.860392331179272</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-3.785905413656845</v>
+        <v>-4.009541344678365</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>17.71881011399726</v>
+        <v>17.86682191101662</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>-0.09906451177047418</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.1966269261650594</v>
+        <v>0.1966269261650596</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.08291083143966135</v>
+        <v>-0.08206325755450507</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2259426630254514</v>
+        <v>-0.2223330329159195</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.09801878807043295</v>
+        <v>0.1024526345018886</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.03857468521177822</v>
+        <v>0.03921440081827467</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1007977654247574</v>
+        <v>-0.1054784361443316</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1644160980233085</v>
+        <v>0.1652102574099683</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.00662180668888725</v>
+        <v>-0.002483050519981544</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1450351768630729</v>
+        <v>-0.1463807947984924</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1499675465582816</v>
+        <v>0.153849100449498</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.04865134000536954</v>
+        <v>0.05076819803112606</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.09110236386034753</v>
+        <v>-0.09141604063161846</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.2320289094051471</v>
+        <v>0.2332575622380663</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1654608596482083</v>
+        <v>0.1617585328448658</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.02767419422260368</v>
+        <v>0.01754676388111118</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2954795666696687</v>
+        <v>0.2902430475123982</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.08833041064789392</v>
+        <v>0.09343359027557151</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.05025792563710681</v>
+        <v>-0.05444133109956886</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2418154623895837</v>
+        <v>0.2446130230673747</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>14.74788611781501</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>36.06632570725014</v>
+        <v>36.06632570725016</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>8.973283641683238</v>
@@ -2153,7 +2153,7 @@
         <v>5.018883142067143</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>26.91447751817469</v>
+        <v>26.91447751817471</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>10.00021767123483</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>6.000687115313681</v>
+        <v>6.069035670030262</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>10.01009274554695</v>
+        <v>9.470988122909507</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>32.29301271557735</v>
+        <v>32.35831220477144</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>4.155572413963275</v>
+        <v>4.387657781709238</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.5308178561374133</v>
+        <v>0.8541180461105391</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>23.53078828426403</v>
+        <v>23.63343912056289</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>6.559149863004684</v>
+        <v>6.63233490822347</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>6.619401053557768</v>
+        <v>6.725167332805652</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>28.99492525535571</v>
+        <v>29.05254594904847</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>16.27856156614814</v>
+        <v>15.686211803884</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>19.73989246282654</v>
+        <v>19.28904896591429</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>40.02024440092054</v>
+        <v>39.91156700254621</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>12.94744904710507</v>
+        <v>13.19263728150398</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>9.589352304198774</v>
+        <v>9.698088612997982</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>30.03313481545123</v>
+        <v>30.82995456055542</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>13.12212613484869</v>
+        <v>13.21095594231527</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>12.7473191275182</v>
+        <v>13.03897476016856</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>33.92484720730189</v>
+        <v>34.05140455123813</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.2392326936810071</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.5850495576921589</v>
+        <v>0.5850495576921593</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.126108735727983</v>
@@ -2258,7 +2258,7 @@
         <v>0.07053438106787054</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3782506903971606</v>
+        <v>0.3782506903971609</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.1503310904118533</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.09141850591813634</v>
+        <v>0.09458002208018984</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1554132451709767</v>
+        <v>0.150530628829344</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.4942784330758984</v>
+        <v>0.500770961527245</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.05725281713639205</v>
+        <v>0.05907542647735</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.007380599640497285</v>
+        <v>0.01170390706109503</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3163178084075851</v>
+        <v>0.3195049501235232</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.09487663410285843</v>
+        <v>0.09768816430573669</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.09616348709614057</v>
+        <v>0.09791782024001043</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.4220777384044442</v>
+        <v>0.419022957422823</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2780674674713136</v>
+        <v>0.2645927624386999</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3323463574865217</v>
+        <v>0.334386699355889</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.6863573189172809</v>
+        <v>0.6867622001012453</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1882915574800073</v>
+        <v>0.1901056487023118</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1406236517783823</v>
+        <v>0.1426036739410825</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.4404423197014765</v>
+        <v>0.4551913390423745</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2018611582813855</v>
+        <v>0.2038329030581607</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1958395842984597</v>
+        <v>0.2024365609424087</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.5278460518576655</v>
+        <v>0.5311535028790482</v>
       </c>
     </row>
     <row r="52">
@@ -2376,7 +2376,7 @@
         <v>7.688780891922898</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>27.85385814831266</v>
+        <v>27.85385814831265</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>5.549263078201689</v>
+        <v>5.593316888930522</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>6.629934178669193</v>
+        <v>6.683749497796175</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>28.9768033489585</v>
+        <v>29.12264202251188</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>6.389375441892446</v>
+        <v>6.33991308070102</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>4.320666625237375</v>
+        <v>4.212018463259777</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>22.87560057842378</v>
+        <v>22.92495437332479</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>6.686728305756086</v>
+        <v>6.646650005506779</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>6.164560718634742</v>
+        <v>5.946256935081785</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>26.5085358454203</v>
+        <v>26.60154625626385</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>10.03985466403931</v>
+        <v>10.40109315905696</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>11.23170162558554</v>
+        <v>11.41789941489176</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>32.99665193399547</v>
+        <v>33.1113595097211</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>10.42902128661142</v>
+        <v>10.43184800472105</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>8.339265388408917</v>
+        <v>8.564886815361666</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>26.21576066527667</v>
+        <v>26.24081652404662</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>9.821287897615228</v>
+        <v>9.813581076197316</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>9.231239412743626</v>
+        <v>9.310179864731136</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>29.11102892446233</v>
+        <v>29.0861141215178</v>
       </c>
     </row>
     <row r="55">
@@ -2481,7 +2481,7 @@
         <v>0.1143827044684847</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.4143699332403202</v>
+        <v>0.41436993324032</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.08564107842931035</v>
+        <v>0.08626992316288988</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.1017042540559373</v>
+        <v>0.1035780423489069</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.4443693149217257</v>
+        <v>0.4490764622879962</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.08857776983287523</v>
+        <v>0.08791375262556536</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.05987002107553761</v>
+        <v>0.05840500482156647</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3152972480206822</v>
+        <v>0.3178240026083108</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.09774844255374561</v>
+        <v>0.09715457423998493</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.09052463108764702</v>
+        <v>0.08716570214249299</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.3886588000787887</v>
+        <v>0.3892194760139989</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.1618552082418903</v>
+        <v>0.1680873010696236</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.1805854787293461</v>
+        <v>0.1852223771494638</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.5322751107559531</v>
+        <v>0.5383022713973976</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1491271172113586</v>
+        <v>0.1495111049216322</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1194617812670228</v>
+        <v>0.1218386999702377</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.3762267186958769</v>
+        <v>0.379338049127621</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1477871858500066</v>
+        <v>0.1466477796052425</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.1393415188282206</v>
+        <v>0.1404737293472619</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.4417694453569284</v>
+        <v>0.4400212712080223</v>
       </c>
     </row>
     <row r="58">
